--- a/DB/data logistik.xlsx
+++ b/DB/data logistik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baboy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\logistic_x\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D869F77-918D-4326-AB76-5CFD45A314CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE077D-BB52-439B-9B69-7C90AD462D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{227CA681-D2FA-4472-B9C1-EDD654A99459}"/>
   </bookViews>
@@ -1102,51 +1102,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1168,6 +1123,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,14 +1529,14 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="45">
+      <c r="F3" s="61">
         <v>2</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -1550,674 +1550,674 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="61"/>
       <c r="I4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="62" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="20" t="s">
         <v>235</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="59" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="53" t="s">
         <v>236</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="45"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="47"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="45"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="47"/>
-      <c r="D30" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="44">
+      <c r="F32" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
-      <c r="C33" s="47"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="60"/>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
-      <c r="C34" s="47"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="47"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="16" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="47"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
-      <c r="C37" s="47"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="C38" s="47"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="60"/>
       <c r="G38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="47"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="60"/>
       <c r="G39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="47"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
-      <c r="C41" s="47"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
-      <c r="C42" s="47"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="24" t="s">
         <v>193</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="44">
+      <c r="F43" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="47"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="60"/>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
-      <c r="C45" s="47"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="26" t="s">
         <v>118</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="44"/>
+      <c r="F45" s="60"/>
       <c r="G45" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
-      <c r="C46" s="47"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="15" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="33">
         <v>44793</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="47"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="26" t="s">
         <v>119</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="60"/>
       <c r="G47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="47"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="60"/>
       <c r="G48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
-      <c r="C49" s="47"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="60"/>
       <c r="G49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
-      <c r="C50" s="47"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="26" t="s">
         <v>140</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="60"/>
       <c r="G50" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
-      <c r="C51" s="47"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="26" t="s">
         <v>141</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="60"/>
       <c r="G51" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
-      <c r="C52" s="47"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="60"/>
       <c r="G52" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="47"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="44"/>
+      <c r="F53" s="60"/>
       <c r="G53" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="47"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="26" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="44"/>
+      <c r="F54" s="60"/>
       <c r="G54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
-      <c r="C55" s="47"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="26" t="s">
         <v>156</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="44"/>
+      <c r="F55" s="60"/>
       <c r="G55" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="47"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="26" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="44"/>
+      <c r="F56" s="60"/>
       <c r="G56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="47"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="60"/>
       <c r="G57" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
-      <c r="C58" s="47"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="44"/>
+      <c r="F58" s="60"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
-      <c r="C59" s="47"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="44"/>
+      <c r="F59" s="60"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
-      <c r="C60" s="47"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="60"/>
       <c r="G60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
-      <c r="C61" s="47"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="60"/>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
-      <c r="C62" s="47"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="44"/>
+      <c r="F62" s="60"/>
       <c r="G62" t="s">
         <v>152</v>
       </c>
@@ -2227,12 +2227,12 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
-      <c r="C63" s="47"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="15" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="44"/>
+      <c r="F63" s="60"/>
       <c r="G63">
         <v>2</v>
       </c>
@@ -2242,26 +2242,26 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
-      <c r="C64" s="47"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="15" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="44"/>
+      <c r="F64" s="60"/>
       <c r="G64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
-      <c r="C65" s="47"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="33">
         <v>44793</v>
       </c>
@@ -2271,14 +2271,14 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
-      <c r="C66" s="47"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="60"/>
       <c r="G66" t="s">
         <v>169</v>
       </c>
@@ -2288,161 +2288,161 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
-      <c r="C67" s="47"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="60"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
-      <c r="C68" s="47"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="44">
+      <c r="F68" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
-      <c r="C69" s="47"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="60"/>
       <c r="G69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
-      <c r="C70" s="47"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="17" t="s">
         <v>172</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="60"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
-      <c r="C71" s="47"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="17" t="s">
         <v>173</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="60"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="47"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="17" t="s">
         <v>174</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F72" s="44"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="33">
         <v>44795</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
-      <c r="C73" s="47"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="15" t="s">
         <v>180</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="44"/>
+      <c r="F73" s="60"/>
       <c r="G73" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
-      <c r="C74" s="47"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="15" t="s">
         <v>171</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="44"/>
+      <c r="F74" s="60"/>
       <c r="G74" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
-      <c r="C75" s="47"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F75" s="44"/>
+      <c r="F75" s="60"/>
       <c r="G75" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
-      <c r="C76" s="47"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="15" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F76" s="44"/>
+      <c r="F76" s="60"/>
       <c r="G76" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="47"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="15" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F77" s="44"/>
+      <c r="F77" s="60"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="47"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="22" t="s">
         <v>175</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="44"/>
+      <c r="F78" s="60"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
-      <c r="C79" s="47"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="44"/>
+      <c r="F79" s="60"/>
       <c r="G79">
         <v>1</v>
       </c>
@@ -2452,12 +2452,12 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
-      <c r="C80" s="47"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="44"/>
+      <c r="F80" s="60"/>
       <c r="G80">
         <v>1</v>
       </c>
@@ -2466,14 +2466,14 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="47"/>
+      <c r="C81" s="53"/>
       <c r="D81" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="44"/>
+      <c r="F81" s="60"/>
       <c r="G81" t="s">
         <v>152</v>
       </c>
@@ -2483,12 +2483,12 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="47"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="17" t="s">
         <v>178</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="60"/>
       <c r="G82">
         <v>10</v>
       </c>
@@ -2498,12 +2498,12 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
-      <c r="C83" s="47"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="60"/>
       <c r="G83">
         <v>10</v>
       </c>
@@ -2513,12 +2513,12 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
-      <c r="C84" s="47"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="44"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="33">
         <v>44796</v>
       </c>
@@ -2528,14 +2528,14 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
-      <c r="C85" s="47"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F85" s="44"/>
+      <c r="F85" s="60"/>
       <c r="G85" t="s">
         <v>188</v>
       </c>
@@ -2545,228 +2545,228 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
-      <c r="C86" s="47"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="60"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
-      <c r="C87" s="47"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F87" s="44"/>
+      <c r="F87" s="60"/>
       <c r="G87" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
-      <c r="C88" s="47"/>
+      <c r="C88" s="53"/>
       <c r="D88" s="15" t="s">
         <v>185</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F88" s="44"/>
+      <c r="F88" s="60"/>
       <c r="G88" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
-      <c r="C89" s="47"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="15" t="s">
         <v>186</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="44"/>
+      <c r="F89" s="60"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="57" t="s">
         <v>70</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="44">
+      <c r="F90" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="52"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="26" t="s">
         <v>198</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="44"/>
+      <c r="F91" s="60"/>
       <c r="G91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="52"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="26" t="s">
         <v>199</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="44"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="33">
         <v>44795</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
-      <c r="C93" s="52"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="26" t="s">
         <v>216</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F93" s="44"/>
+      <c r="F93" s="60"/>
       <c r="G93" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
-      <c r="C94" s="52"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="26" t="s">
         <v>224</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="60"/>
       <c r="G94" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="52"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="44"/>
+      <c r="F95" s="60"/>
       <c r="G95" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="52"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="15" t="s">
         <v>185</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="44"/>
+      <c r="F96" s="60"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="52"/>
+      <c r="C97" s="58"/>
       <c r="D97" s="15" t="s">
         <v>186</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F97" s="44"/>
+      <c r="F97" s="60"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="52"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="20" t="s">
         <v>200</v>
       </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="60"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
-      <c r="C99" s="52"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="44"/>
+      <c r="F99" s="60"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="52"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F100" s="44"/>
+      <c r="F100" s="60"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="52"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="17" t="s">
         <v>82</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="44"/>
+      <c r="F101" s="60"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="52"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="17" t="s">
         <v>203</v>
       </c>
       <c r="E102" s="3"/>
-      <c r="F102" s="44"/>
+      <c r="F102" s="60"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="52"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="18" t="s">
         <v>204</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="44"/>
+      <c r="F103" s="60"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="52"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F104" s="44"/>
+      <c r="F104" s="60"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="53"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="17" t="s">
         <v>171</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F105" s="44"/>
+      <c r="F105" s="60"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="48" t="s">
+      <c r="C106" s="54" t="s">
         <v>71</v>
       </c>
       <c r="D106" s="17" t="s">
@@ -2776,7 +2776,7 @@
       <c r="F106" s="9"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="49"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="17" t="s">
         <v>73</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="F107" s="9"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="50"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="17" t="s">
         <v>74</v>
       </c>
@@ -2837,16 +2837,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -3057,10 +3057,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="63"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
@@ -3119,14 +3119,14 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -3252,16 +3252,16 @@
       <c r="G32" s="42"/>
     </row>
     <row r="33" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3812,14 +3812,14 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -3996,14 +3996,14 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">

--- a/DB/data logistik.xlsx
+++ b/DB/data logistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\logistic_x\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE077D-BB52-439B-9B69-7C90AD462D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB735DD-B7DF-4414-B633-4BF1DC70B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{227CA681-D2FA-4472-B9C1-EDD654A99459}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,10 +1714,10 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="53"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="45" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="61"/>
@@ -1725,46 +1725,46 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="53"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="61"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="53"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="53"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="61"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="53"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="61"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="61"/>

--- a/DB/data logistik.xlsx
+++ b/DB/data logistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\logistic_x\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB735DD-B7DF-4414-B633-4BF1DC70B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1221DD-01E8-44C1-B57A-26EE1078843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{227CA681-D2FA-4472-B9C1-EDD654A99459}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,9 +1015,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1040,9 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1167,6 +1161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E75130-4CEA-47B7-B34E-320C027D02EB}">
   <dimension ref="B2:J109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,8 +1492,8 @@
     <col min="2" max="2" width="3.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="10" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1517,32 +1514,32 @@
       <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>2</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1550,674 +1547,674 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="59"/>
       <c r="I4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="61"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="61"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="18" t="s">
         <v>235</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="61"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="61"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="49" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="61"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="61"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="59"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="59"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="61"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="59"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="59"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="60"/>
+      <c r="F33" s="58"/>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="60"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="58"/>
       <c r="G38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="60"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="58"/>
       <c r="G39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="60"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="60"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="60"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="24" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="60">
+      <c r="F43" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="15" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="14" t="s">
         <v>194</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="58"/>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="26" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="24" t="s">
         <v>118</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="60"/>
+      <c r="F45" s="58"/>
       <c r="G45" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="15" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="33">
+      <c r="F46" s="58"/>
+      <c r="G46" s="31">
         <v>44793</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="26" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="24" t="s">
         <v>119</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="60"/>
+      <c r="F47" s="58"/>
       <c r="G47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="26" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="60"/>
+      <c r="F48" s="58"/>
       <c r="G48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="26" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="60"/>
+      <c r="F49" s="58"/>
       <c r="G49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="26" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="60"/>
+      <c r="F50" s="58"/>
       <c r="G50" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="26" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="60"/>
+      <c r="F51" s="58"/>
       <c r="G51" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="26" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="60"/>
+      <c r="F52" s="58"/>
       <c r="G52" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="26" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="24" t="s">
         <v>143</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="60"/>
+      <c r="F53" s="58"/>
       <c r="G53" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="26" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="60"/>
+      <c r="F54" s="58"/>
       <c r="G54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="26" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="24" t="s">
         <v>156</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="60"/>
+      <c r="F55" s="58"/>
       <c r="G55" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="26" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="24" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="60"/>
+      <c r="F56" s="58"/>
       <c r="G56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="26" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="24" t="s">
         <v>158</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="60"/>
+      <c r="F57" s="58"/>
       <c r="G57" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="26" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="60"/>
+      <c r="F58" s="58"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="24" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="60"/>
+      <c r="F59" s="58"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="15" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="60"/>
+      <c r="F60" s="58"/>
       <c r="G60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="15" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="14" t="s">
         <v>194</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="60"/>
+      <c r="F61" s="58"/>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="60"/>
+      <c r="F62" s="58"/>
       <c r="G62" t="s">
         <v>152</v>
       </c>
@@ -2226,13 +2223,13 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="15" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="14" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="60"/>
+      <c r="F63" s="58"/>
       <c r="G63">
         <v>2</v>
       </c>
@@ -2241,44 +2238,44 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="15" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="60"/>
+      <c r="F64" s="58"/>
       <c r="G64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="15" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="14" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="33">
+      <c r="F65" s="58"/>
+      <c r="G65" s="31">
         <v>44793</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H65" s="31">
         <v>44793</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="15" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="60"/>
+      <c r="F66" s="58"/>
       <c r="G66" t="s">
         <v>169</v>
       </c>
@@ -2287,162 +2284,162 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="15" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="60"/>
+      <c r="F67" s="58"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="22" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="20" t="s">
         <v>191</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="60">
+      <c r="F68" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="60"/>
+      <c r="F69" s="58"/>
       <c r="G69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="17" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="15" t="s">
         <v>172</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="60"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="11"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="17" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="15" t="s">
         <v>173</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="60"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="17" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="15" t="s">
         <v>174</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="33">
+      <c r="F72" s="58"/>
+      <c r="G72" s="31">
         <v>44795</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="15" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="14" t="s">
         <v>180</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="60"/>
+      <c r="F73" s="58"/>
       <c r="G73" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="15" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="14" t="s">
         <v>171</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="60"/>
+      <c r="F74" s="58"/>
       <c r="G74" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="15" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F75" s="60"/>
+      <c r="F75" s="58"/>
       <c r="G75" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="15" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F76" s="60"/>
+      <c r="F76" s="58"/>
       <c r="G76" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="11"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="15" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="14" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="53"/>
-      <c r="D78" s="22" t="s">
+      <c r="C78" s="51"/>
+      <c r="D78" s="20" t="s">
         <v>175</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="60"/>
+      <c r="F78" s="58"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="11"/>
-      <c r="C79" s="53"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="58"/>
       <c r="G79">
         <v>1</v>
       </c>
@@ -2451,13 +2448,13 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="11"/>
-      <c r="C80" s="53"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="60"/>
+      <c r="F80" s="58"/>
       <c r="G80">
         <v>1</v>
       </c>
@@ -2466,14 +2463,14 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="53"/>
-      <c r="D81" s="23" t="s">
+      <c r="C81" s="51"/>
+      <c r="D81" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="58"/>
       <c r="G81" t="s">
         <v>152</v>
       </c>
@@ -2482,13 +2479,13 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="17" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="15" t="s">
         <v>178</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="60"/>
+      <c r="F82" s="58"/>
       <c r="G82">
         <v>10</v>
       </c>
@@ -2497,13 +2494,13 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
-      <c r="C83" s="53"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="60"/>
+      <c r="F83" s="58"/>
       <c r="G83">
         <v>10</v>
       </c>
@@ -2512,30 +2509,30 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-      <c r="C84" s="53"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="33">
+      <c r="F84" s="58"/>
+      <c r="G84" s="31">
         <v>44796</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H84" s="31">
         <v>44796</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
-      <c r="C85" s="53"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F85" s="60"/>
+      <c r="F85" s="58"/>
       <c r="G85" t="s">
         <v>188</v>
       </c>
@@ -2544,255 +2541,255 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="11"/>
-      <c r="C86" s="53"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="60"/>
+      <c r="F86" s="58"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="15" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="58"/>
       <c r="G87" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="15" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F88" s="60"/>
+      <c r="F88" s="58"/>
       <c r="G88" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="15" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="14" t="s">
         <v>186</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="60"/>
+      <c r="F89" s="58"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="18" t="s">
         <v>170</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="60">
+      <c r="F90" s="58">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="58"/>
-      <c r="D91" s="26" t="s">
+      <c r="C91" s="56"/>
+      <c r="D91" s="24" t="s">
         <v>198</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="60"/>
+      <c r="F91" s="58"/>
       <c r="G91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="58"/>
-      <c r="D92" s="26" t="s">
+      <c r="C92" s="56"/>
+      <c r="D92" s="24" t="s">
         <v>199</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="33">
+      <c r="F92" s="58"/>
+      <c r="G92" s="31">
         <v>44795</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="11"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="26" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F93" s="60"/>
+      <c r="F93" s="58"/>
       <c r="G93" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="11"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="26" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="24" t="s">
         <v>224</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="60"/>
+      <c r="F94" s="58"/>
       <c r="G94" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="58"/>
-      <c r="D95" s="15" t="s">
+      <c r="C95" s="56"/>
+      <c r="D95" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="60"/>
+      <c r="F95" s="58"/>
       <c r="G95" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="58"/>
-      <c r="D96" s="15" t="s">
+      <c r="C96" s="56"/>
+      <c r="D96" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="60"/>
+      <c r="F96" s="58"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="58"/>
-      <c r="D97" s="15" t="s">
+      <c r="C97" s="56"/>
+      <c r="D97" s="14" t="s">
         <v>186</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F97" s="60"/>
+      <c r="F97" s="58"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="58"/>
-      <c r="D98" s="20" t="s">
+      <c r="C98" s="56"/>
+      <c r="D98" s="18" t="s">
         <v>200</v>
       </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="60"/>
+      <c r="F98" s="58"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="C99" s="58"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="60"/>
+      <c r="F99" s="58"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="58"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F100" s="60"/>
+      <c r="F100" s="58"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="58"/>
-      <c r="D101" s="17" t="s">
+      <c r="C101" s="56"/>
+      <c r="D101" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="60"/>
+      <c r="F101" s="58"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="58"/>
-      <c r="D102" s="17" t="s">
+      <c r="C102" s="56"/>
+      <c r="D102" s="15" t="s">
         <v>203</v>
       </c>
       <c r="E102" s="3"/>
-      <c r="F102" s="60"/>
+      <c r="F102" s="58"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="58"/>
-      <c r="D103" s="18" t="s">
+      <c r="C103" s="56"/>
+      <c r="D103" s="16" t="s">
         <v>204</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="60"/>
+      <c r="F103" s="58"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="58"/>
-      <c r="D104" s="17" t="s">
+      <c r="C104" s="56"/>
+      <c r="D104" s="15" t="s">
         <v>205</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F104" s="60"/>
+      <c r="F104" s="58"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="59"/>
-      <c r="D105" s="17" t="s">
+      <c r="C105" s="57"/>
+      <c r="D105" s="15" t="s">
         <v>171</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F105" s="60"/>
+      <c r="F105" s="58"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E106" s="3"/>
-      <c r="F106" s="9"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="55"/>
-      <c r="D107" s="17" t="s">
+      <c r="C107" s="53"/>
+      <c r="D107" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E107" s="3"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="56"/>
-      <c r="D108" s="17" t="s">
+      <c r="C108" s="54"/>
+      <c r="D108" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E108" s="3"/>
-      <c r="F108" s="9"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <f>SUM(F3:F108) + 2</f>
         <v>12</v>
       </c>
@@ -2837,40 +2834,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2887,7 +2884,7 @@
       <c r="E4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2913,7 +2910,7 @@
       <c r="E5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2930,19 +2927,19 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="28">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2956,19 +2953,19 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2982,19 +2979,19 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="28">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -3008,19 +3005,19 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="28">
         <v>6</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -3031,22 +3028,22 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="28">
         <v>6</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -3057,16 +3054,16 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3111,28 +3108,28 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>44796</v>
       </c>
       <c r="D25" s="1"/>
@@ -3153,77 +3150,77 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39">
+      <c r="B28" s="37">
         <v>1</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="37">
         <v>10</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="37">
         <v>10</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="39" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39">
+      <c r="B29" s="37">
         <v>2</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="37">
         <v>5</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="37">
         <v>6</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="39" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3244,24 +3241,24 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3285,17 +3282,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3345,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="3"/>
@@ -3364,34 +3361,34 @@
       <c r="B3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3402,50 +3399,50 @@
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3454,98 +3451,98 @@
       <c r="B6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="34"/>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="32" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3554,34 +3551,34 @@
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3590,34 +3587,34 @@
       <c r="B11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3629,20 +3626,20 @@
         <v>3</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="1"/>
@@ -3655,20 +3652,20 @@
         <v>19</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="1"/>
@@ -3681,20 +3678,20 @@
         <v>20</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="1"/>
@@ -3721,37 +3718,37 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3759,11 +3756,11 @@
       <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="3"/>
@@ -3812,27 +3809,27 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -3900,7 +3897,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3918,7 +3915,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3936,7 +3933,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3954,7 +3951,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3972,7 +3969,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3996,27 +3993,27 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -4030,7 +4027,7 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4075,7 +4072,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4088,7 +4085,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4107,7 +4104,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4126,7 +4123,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4145,7 +4142,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4164,7 +4161,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/DB/data logistik.xlsx
+++ b/DB/data logistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\logistic_x\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1221DD-01E8-44C1-B57A-26EE1078843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742527D6-0500-4049-9B2A-78739D05615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{227CA681-D2FA-4472-B9C1-EDD654A99459}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{227CA681-D2FA-4472-B9C1-EDD654A99459}"/>
   </bookViews>
   <sheets>
     <sheet name="Modul Aplikasi" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>Management Barang</t>
+  </si>
+  <si>
+    <t>kode</t>
   </si>
 </sst>
 </file>
@@ -1118,6 +1121,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,9 +1167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1480,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E75130-4CEA-47B7-B34E-320C027D02EB}">
-  <dimension ref="B2:J109"/>
+  <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1529,14 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>2</v>
       </c>
       <c r="I3" s="23" t="s">
@@ -1547,674 +1550,674 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="44" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="43"/>
-      <c r="F4" s="59"/>
+      <c r="F4" s="60"/>
       <c r="I4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="45" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="43"/>
-      <c r="F5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="43"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="45" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="43"/>
-      <c r="F7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="45" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="45" t="s">
         <v>125</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="59"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="45" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="59"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="18" t="s">
         <v>235</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="59"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="42" t="s">
         <v>233</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="42" t="s">
         <v>234</v>
       </c>
       <c r="E14" s="43"/>
-      <c r="F14" s="59"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>236</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="47" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="59"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="45" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="43"/>
-      <c r="F21" s="59"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E22" s="43"/>
-      <c r="F22" s="59"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="45" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="43"/>
-      <c r="F23" s="59"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E24" s="43"/>
-      <c r="F24" s="59"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="42" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="43"/>
-      <c r="F28" s="59"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="44" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="42" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="58">
+      <c r="F32" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="65" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="50" t="s">
         <v>104</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="65" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="50" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="59"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="51"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="43"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="51"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E36" s="43"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
-      <c r="C37" s="51"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="45" t="s">
         <v>110</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="C38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="45" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="43"/>
-      <c r="F38" s="58"/>
+      <c r="F38" s="59"/>
       <c r="G38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
-      <c r="C39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="45" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="43"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="59"/>
       <c r="G39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="59"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
-      <c r="C41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="59"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
-      <c r="C42" s="51"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="45" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
-      <c r="C43" s="51"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="58">
+      <c r="F43" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
-      <c r="C44" s="51"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="14" t="s">
         <v>194</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="59"/>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
-      <c r="C45" s="51"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="24" t="s">
         <v>118</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="59"/>
       <c r="G45" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
-      <c r="C46" s="51"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="31">
         <v>44793</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
-      <c r="C47" s="51"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="24" t="s">
         <v>119</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="59"/>
       <c r="G47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
-      <c r="C48" s="51"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="24" t="s">
         <v>121</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="59"/>
       <c r="G48" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
-      <c r="C49" s="51"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="24" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="59"/>
       <c r="G49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
-      <c r="C50" s="51"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="59"/>
       <c r="G50" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
-      <c r="C51" s="51"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="59"/>
       <c r="G51" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
-      <c r="C52" s="51"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="59"/>
       <c r="G52" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
-      <c r="C53" s="51"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="24" t="s">
         <v>143</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="59"/>
       <c r="G53" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
-      <c r="C54" s="51"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="59"/>
       <c r="G54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
-      <c r="C55" s="51"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="24" t="s">
         <v>156</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="59"/>
       <c r="G55" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
-      <c r="C56" s="51"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="24" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="59"/>
       <c r="G56" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
-      <c r="C57" s="51"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="24" t="s">
         <v>158</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="59"/>
       <c r="G57" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
-      <c r="C58" s="51"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="59"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
-      <c r="C59" s="51"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="59"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
-      <c r="C60" s="51"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="59"/>
       <c r="G60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
-      <c r="C61" s="51"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="14" t="s">
         <v>194</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="59"/>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
-      <c r="C62" s="51"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="59"/>
       <c r="G62" t="s">
         <v>152</v>
       </c>
@@ -2224,12 +2227,12 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
-      <c r="C63" s="51"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="14" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="59"/>
       <c r="G63">
         <v>2</v>
       </c>
@@ -2239,26 +2242,26 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
-      <c r="C64" s="51"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="58"/>
+      <c r="F64" s="59"/>
       <c r="G64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
-      <c r="C65" s="51"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="14" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="31">
         <v>44793</v>
       </c>
@@ -2268,14 +2271,14 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
-      <c r="C66" s="51"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="59"/>
       <c r="G66" t="s">
         <v>169</v>
       </c>
@@ -2285,222 +2288,216 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
-      <c r="C67" s="51"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
-      <c r="C68" s="51"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="20" t="s">
         <v>191</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="58">
+      <c r="F68" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
-      <c r="C69" s="51"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="59"/>
       <c r="G69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="58"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="59"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
-      <c r="C71" s="51"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="59"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
-      <c r="C72" s="51"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="31">
-        <v>44795</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F72" s="59"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="14" t="s">
-        <v>180</v>
+      <c r="C73" s="52"/>
+      <c r="D73" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" s="58"/>
-      <c r="G73" t="s">
-        <v>189</v>
+        <v>168</v>
+      </c>
+      <c r="F73" s="59"/>
+      <c r="G73" s="31">
+        <v>44795</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
-      <c r="C74" s="51"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="14" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F74" s="58"/>
+        <v>87</v>
+      </c>
+      <c r="F74" s="59"/>
       <c r="G74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
-      <c r="C75" s="51"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="58"/>
+        <v>187</v>
+      </c>
+      <c r="F75" s="59"/>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
-      <c r="C76" s="51"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="59"/>
       <c r="G76" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
-      <c r="C77" s="51"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F77" s="58"/>
+      <c r="F77" s="59"/>
+      <c r="G77" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="51"/>
-      <c r="D78" s="20" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="59"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="52"/>
+      <c r="D79" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="58"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F79" s="58"/>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
-      <c r="C80" s="51"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="58"/>
+        <v>176</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="59"/>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="59"/>
+      <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="51"/>
-      <c r="D81" s="21" t="s">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="52"/>
+      <c r="D82" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="58"/>
-      <c r="G81" t="s">
+      <c r="F82" s="59"/>
+      <c r="G82" t="s">
         <v>152</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="58"/>
-      <c r="G82">
-        <v>10</v>
-      </c>
-      <c r="H82">
-        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="1" t="s">
-        <v>177</v>
+      <c r="C83" s="52"/>
+      <c r="D83" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="58"/>
+      <c r="F83" s="59"/>
       <c r="G83">
         <v>10</v>
       </c>
@@ -2510,272 +2507,279 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
-      <c r="C84" s="51"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="31">
-        <v>44796</v>
-      </c>
-      <c r="H84" s="31">
-        <v>44796</v>
+      <c r="F84" s="59"/>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
-      <c r="C85" s="51"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F85" s="58"/>
-      <c r="G85" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="31">
+        <v>44796</v>
+      </c>
+      <c r="H85" s="31">
+        <v>44796</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
-      <c r="C86" s="51"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="58"/>
+        <v>181</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86" s="59"/>
+      <c r="G86" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F87" s="58"/>
-      <c r="G87" t="s">
-        <v>146</v>
-      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="59"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
-      <c r="C88" s="51"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F88" s="58"/>
+      <c r="F88" s="59"/>
       <c r="G88" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="10"/>
-      <c r="C89" s="51"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="58"/>
+      <c r="F89" s="59"/>
+      <c r="G89" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="55" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="59"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D91" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="58">
+      <c r="E91" s="3"/>
+      <c r="F91" s="59">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="56"/>
-      <c r="D91" s="24" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="57"/>
+      <c r="D92" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="58"/>
-      <c r="G91">
+      <c r="F92" s="59"/>
+      <c r="G92">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="56"/>
-      <c r="D92" s="24" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="57"/>
+      <c r="D93" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="58"/>
-      <c r="G92" s="31">
+      <c r="F93" s="59"/>
+      <c r="G93" s="31">
         <v>44795</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="10"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F93" s="58"/>
-      <c r="G93" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
-      <c r="C94" s="56"/>
+      <c r="C94" s="57"/>
       <c r="D94" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="59"/>
+      <c r="G94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="58"/>
-      <c r="G94" t="s">
+      <c r="F95" s="59"/>
+      <c r="G95" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="56"/>
-      <c r="D95" s="14" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="57"/>
+      <c r="D96" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F95" s="58"/>
-      <c r="G95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="56"/>
-      <c r="D96" s="14" t="s">
-        <v>185</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="58"/>
+      <c r="F96" s="59"/>
+      <c r="G96" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="56"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F97" s="58"/>
+      <c r="F97" s="59"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="56"/>
-      <c r="D98" s="18" t="s">
+      <c r="C98" s="57"/>
+      <c r="D98" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="59"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="57"/>
+      <c r="D99" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="58"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="3"/>
+      <c r="F99" s="59"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="10"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="58"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="56"/>
-      <c r="D100" s="1" t="s">
+      <c r="F100" s="59"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="57"/>
+      <c r="D101" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F100" s="58"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="56"/>
-      <c r="D101" s="15" t="s">
+      <c r="F101" s="59"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="57"/>
+      <c r="D102" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="58"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="56"/>
-      <c r="D102" s="15" t="s">
+      <c r="F102" s="59"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="57"/>
+      <c r="D103" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="58"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="56"/>
-      <c r="D103" s="16" t="s">
+      <c r="E103" s="3"/>
+      <c r="F103" s="59"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="57"/>
+      <c r="D104" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="58"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="56"/>
-      <c r="D104" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="58"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="59"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C105" s="57"/>
       <c r="D105" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" s="59"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="58"/>
+      <c r="D106" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F105" s="58"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="52" t="s">
+      <c r="F106" s="59"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D107" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="53"/>
-      <c r="D107" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -2783,28 +2787,36 @@
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C108" s="54"/>
       <c r="D108" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F109" s="10">
-        <f>SUM(F3:F108) + 2</f>
+      <c r="C109" s="55"/>
+      <c r="D109" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="10">
+        <f>SUM(F3:F109) + 2</f>
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C3:C14"/>
-    <mergeCell ref="C15:C89"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C90:C105"/>
-    <mergeCell ref="F90:F105"/>
+    <mergeCell ref="C15:C90"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C91:C106"/>
+    <mergeCell ref="F91:F106"/>
     <mergeCell ref="F3:F31"/>
     <mergeCell ref="F32:F42"/>
     <mergeCell ref="F43:F67"/>
-    <mergeCell ref="F68:F89"/>
+    <mergeCell ref="F68:F90"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2816,7 +2828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E424A7-633B-4620-B891-2C62DE1C4C93}">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
@@ -2834,16 +2846,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -3054,10 +3066,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="62"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
@@ -3116,14 +3128,14 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -3249,16 +3261,16 @@
       <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3809,14 +3821,14 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -3993,14 +4005,14 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
